--- a/Documents/Risk Log/OneVA Pharmacy Implementation Risk Log v2.0 20160222.xlsx
+++ b/Documents/Risk Log/OneVA Pharmacy Implementation Risk Log v2.0 20160222.xlsx
@@ -16,15 +16,12 @@
     <sheet name="OMB Risk Categories" sheetId="10" r:id="rId7"/>
     <sheet name="Yellow Flag Risk Categories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="411">
   <si>
     <t xml:space="preserve">Risk Owner </t>
   </si>
@@ -1600,9 +1597,6 @@
     <t>Initial Risks</t>
   </si>
   <si>
-    <t>TJ Cope</t>
-  </si>
-  <si>
     <t>02/22/2016</t>
   </si>
   <si>
@@ -1615,7 +1609,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2363,6 +2357,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2370,6 +2367,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2421,12 +2421,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3959,187 +3953,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Issues"/>
-      <sheetName val="Risks"/>
-      <sheetName val="Closed Issues"/>
-      <sheetName val="Closed Risks"/>
-      <sheetName val="Old Issue History"/>
-      <sheetName val="Old Risk History"/>
-      <sheetName val="OMB300 Graph"/>
-      <sheetName val="Program  Info"/>
-      <sheetName val="OMB Risk Categories"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="Risk Ranking &amp; Dropdowns"/>
-      <sheetName val="Burndown Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="I3" t="str">
-            <v>VH</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="L3" t="str">
-            <v>VHVH</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="B1">
-            <v>41913</v>
-          </cell>
-          <cell r="C1">
-            <v>41920</v>
-          </cell>
-          <cell r="D1">
-            <v>41927</v>
-          </cell>
-          <cell r="E1">
-            <v>41934</v>
-          </cell>
-          <cell r="F1">
-            <v>41941</v>
-          </cell>
-          <cell r="G1">
-            <v>41948</v>
-          </cell>
-          <cell r="H1">
-            <v>41955</v>
-          </cell>
-          <cell r="I1">
-            <v>41962</v>
-          </cell>
-          <cell r="J1">
-            <v>41969</v>
-          </cell>
-          <cell r="K1">
-            <v>41976</v>
-          </cell>
-          <cell r="L1">
-            <v>41983</v>
-          </cell>
-          <cell r="M1">
-            <v>41990</v>
-          </cell>
-          <cell r="N1">
-            <v>41997</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Risks</v>
-          </cell>
-          <cell r="B2">
-            <v>343</v>
-          </cell>
-          <cell r="C2">
-            <v>327</v>
-          </cell>
-          <cell r="D2">
-            <v>332</v>
-          </cell>
-          <cell r="E2">
-            <v>332</v>
-          </cell>
-          <cell r="F2">
-            <v>291</v>
-          </cell>
-          <cell r="G2">
-            <v>270</v>
-          </cell>
-          <cell r="H2">
-            <v>265</v>
-          </cell>
-          <cell r="I2">
-            <v>240</v>
-          </cell>
-          <cell r="J2">
-            <v>240</v>
-          </cell>
-          <cell r="K2">
-            <v>240</v>
-          </cell>
-          <cell r="L2">
-            <v>232</v>
-          </cell>
-          <cell r="M2">
-            <v>255</v>
-          </cell>
-          <cell r="N2">
-            <v>276</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Issues</v>
-          </cell>
-          <cell r="B3">
-            <v>37</v>
-          </cell>
-          <cell r="C3">
-            <v>59</v>
-          </cell>
-          <cell r="D3">
-            <v>59</v>
-          </cell>
-          <cell r="E3">
-            <v>59</v>
-          </cell>
-          <cell r="F3">
-            <v>64</v>
-          </cell>
-          <cell r="G3">
-            <v>59</v>
-          </cell>
-          <cell r="H3">
-            <v>53</v>
-          </cell>
-          <cell r="I3">
-            <v>48</v>
-          </cell>
-          <cell r="J3">
-            <v>43</v>
-          </cell>
-          <cell r="K3">
-            <v>43</v>
-          </cell>
-          <cell r="L3">
-            <v>39</v>
-          </cell>
-          <cell r="M3">
-            <v>32</v>
-          </cell>
-          <cell r="N3">
-            <v>32</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4577,31 +4390,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" ht="23.25">
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="C4" s="7"/>
@@ -4640,28 +4453,28 @@
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="132">
+      <c r="A17" s="115">
         <v>42422</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="18.75">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="116" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4698,12 +4511,12 @@
       <c r="A1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="80" t="s">
@@ -4723,25 +4536,25 @@
       <c r="A4" s="82" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="133">
+      <c r="B4" s="111">
         <v>1</v>
       </c>
       <c r="C4" s="83" t="s">
         <v>408</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="82" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="84">
         <v>2</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D5" s="83" t="s">
         <v>328</v>
@@ -4798,26 +4611,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:227" ht="31.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
     </row>
     <row r="2" spans="1:227" s="28" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -4835,18 +4648,18 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="123" t="s">
         <v>331</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="121" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="123" t="s">
         <v>313</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
       <c r="R2" s="34"/>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
@@ -5078,14 +4891,14 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="30"/>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="118" t="s">
         <v>314</v>
       </c>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
       <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:227" s="4" customFormat="1" ht="61.9" customHeight="1">
@@ -6246,10 +6059,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="55" t="s">
@@ -6532,10 +6345,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="125"/>
+      <c r="B37" s="127"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="61" t="s">
@@ -6648,27 +6461,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="128" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="28" t="s">
@@ -6678,25 +6491,25 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="121" t="s">
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="129" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="131" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:19">
@@ -6707,19 +6520,19 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="121" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="123" t="s">
         <v>242</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
@@ -7174,10 +6987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="1:2" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="68" t="s">
@@ -7396,10 +7209,10 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="130"/>
+      <c r="B29" s="132"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="72" t="s">
@@ -7612,12 +7425,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="73" t="s">
@@ -8039,6 +7852,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9403BA8FA3C04284FCC68C41786FF8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cdf0668006c7c051d53c5dfa2250140">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79b90255-bd6f-4c6b-86d1-35a4603ef2ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22cf23c9cdaf57a158a2424418ce76c4" ns2:_="">
     <xsd:import namespace="79b90255-bd6f-4c6b-86d1-35a4603ef2ac"/>
@@ -8186,13 +8005,11 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8201,11 +8018,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BDA011-D9A5-4F49-9164-99DA416828A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="79b90255-bd6f-4c6b-86d1-35a4603ef2ac"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354D5C31-8D48-4FBF-8BF5-A4041B3C4687}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8223,34 +8052,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BDA011-D9A5-4F49-9164-99DA416828A8}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{369CBE67-1FC7-4FBD-BABA-C18E052BB35F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79b90255-bd6f-4c6b-86d1-35a4603ef2ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6B9E27-9EE5-42B6-AA56-49BB90468EFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{369CBE67-1FC7-4FBD-BABA-C18E052BB35F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>